--- a/templates/BELINVENTORY_BARCODE_2022.xlsx
+++ b/templates/BELINVENTORY_BARCODE_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\source\repos\parus-electronic-inventory-app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2A5C6-2E1D-4EBE-A29E-E4903ABF638B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBFD5EA-538D-423A-A59E-D897CB4EB241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E480F2B1-D09D-481B-863B-42622AF3855B}"/>
+    <workbookView xWindow="3945" yWindow="1785" windowWidth="21135" windowHeight="12720" xr2:uid="{E480F2B1-D09D-481B-863B-42622AF3855B}"/>
   </bookViews>
   <sheets>
     <sheet name="BARCODE" sheetId="1" r:id="rId1"/>
@@ -87,15 +87,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Libre Barcode 128"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Libre Barcode 128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,16 +216,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,18 +560,18 @@
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" s="11" customFormat="1" ht="37.5" x14ac:dyDescent="0.75">
       <c r="A7" s="5"/>
@@ -589,6 +589,6 @@
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/BELINVENTORY_BARCODE_2022.xlsx
+++ b/templates/BELINVENTORY_BARCODE_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\source\repos\parus-electronic-inventory-app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBFD5EA-538D-423A-A59E-D897CB4EB241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825F4D5-7D62-4173-BB5E-7FC56D0BB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="1785" windowWidth="21135" windowHeight="12720" xr2:uid="{E480F2B1-D09D-481B-863B-42622AF3855B}"/>
   </bookViews>
@@ -546,7 +546,9 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,7 +570,7 @@
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
